--- a/analyses/thaa/THAA_peptide_compare_relAA.xlsx
+++ b/analyses/thaa/THAA_peptide_compare_relAA.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="THAA_relAA" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="digested_peptide_relAAs_THAAcom" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="plotting" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="lines plots" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="scatter plot" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -245,6 +246,75 @@
   <si>
     <t xml:space="preserve">T12 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0 Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2 Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5 Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12 Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asparagine/Aspartic Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamine/glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylalanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucine/isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line</t>
+  </si>
 </sst>
 </file>
 
@@ -253,11 +323,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -276,6 +347,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -327,8 +403,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,7 +527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$X$1</c:f>
+              <c:f>'lines plots'!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -492,6 +572,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -507,7 +588,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -527,7 +608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$X$2:$X$5</c:f>
+              <c:f>'lines plots'!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -553,7 +634,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Y$1</c:f>
+              <c:f>'lines plots'!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,6 +675,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -609,7 +691,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -629,7 +711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Y$2:$Y$5</c:f>
+              <c:f>'lines plots'!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -655,7 +737,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Z$1</c:f>
+              <c:f>'lines plots'!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -699,6 +781,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -714,7 +797,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -734,7 +817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Z$2:$Z$5</c:f>
+              <c:f>'lines plots'!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -760,7 +843,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AA$1</c:f>
+              <c:f>'lines plots'!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,6 +884,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -816,7 +900,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -836,7 +920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AA$2:$AA$5</c:f>
+              <c:f>'lines plots'!$AA$2:$AA$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -865,11 +949,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84177939"/>
-        <c:axId val="72951216"/>
+        <c:axId val="83681332"/>
+        <c:axId val="82728715"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84177939"/>
+        <c:axId val="83681332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +987,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -925,7 +1009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72951216"/>
+        <c:crossAx val="82728715"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72951216"/>
+        <c:axId val="82728715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +1060,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -998,7 +1082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84177939"/>
+        <c:crossAx val="83681332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,7 +1173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$L$1</c:f>
+              <c:f>'lines plots'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,6 +1218,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1149,7 +1234,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1169,7 +1254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$L$2:$L$5</c:f>
+              <c:f>'lines plots'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1195,7 +1280,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$M$1</c:f>
+              <c:f>'lines plots'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1236,6 +1321,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1251,7 +1337,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1271,7 +1357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$M$2:$M$5</c:f>
+              <c:f>'lines plots'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1297,7 +1383,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$N$1</c:f>
+              <c:f>'lines plots'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,6 +1428,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1357,7 +1444,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1377,7 +1464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$N$2:$N$5</c:f>
+              <c:f>'lines plots'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1403,7 +1490,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$O$1</c:f>
+              <c:f>'lines plots'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1444,6 +1531,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1459,7 +1547,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1479,7 +1567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$O$2:$O$5</c:f>
+              <c:f>'lines plots'!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1505,7 +1593,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$V$1</c:f>
+              <c:f>'lines plots'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1550,6 +1638,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1565,7 +1654,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1585,7 +1674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$V$2:$V$5</c:f>
+              <c:f>'lines plots'!$V$2:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1611,7 +1700,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$W$1</c:f>
+              <c:f>'lines plots'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1652,6 +1741,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1667,7 +1757,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1687,7 +1777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$W$2:$W$5</c:f>
+              <c:f>'lines plots'!$W$2:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1716,11 +1806,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="78072488"/>
-        <c:axId val="37258305"/>
+        <c:axId val="74272279"/>
+        <c:axId val="29069414"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78072488"/>
+        <c:axId val="74272279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1844,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1776,7 +1866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37258305"/>
+        <c:crossAx val="29069414"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37258305"/>
+        <c:axId val="29069414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1917,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1849,7 +1939,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78072488"/>
+        <c:crossAx val="74272279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1940,7 +2030,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$T$1</c:f>
+              <c:f>'lines plots'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1985,6 +2075,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2000,7 +2091,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2020,7 +2111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$T$2:$T$5</c:f>
+              <c:f>'lines plots'!$T$2:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2046,7 +2137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$U$1</c:f>
+              <c:f>'lines plots'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2087,6 +2178,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2102,7 +2194,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2122,7 +2214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$U$2:$U$5</c:f>
+              <c:f>'lines plots'!$U$2:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2148,7 +2240,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AB$1</c:f>
+              <c:f>'lines plots'!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2193,6 +2285,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2208,7 +2301,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2228,7 +2321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AB$2:$AB$5</c:f>
+              <c:f>'lines plots'!$AB$2:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2254,7 +2347,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AC$1</c:f>
+              <c:f>'lines plots'!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2295,6 +2388,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2310,7 +2404,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2330,7 +2424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AC$2:$AC$5</c:f>
+              <c:f>'lines plots'!$AC$2:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2359,11 +2453,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33867639"/>
-        <c:axId val="36684253"/>
+        <c:axId val="44424790"/>
+        <c:axId val="35137448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33867639"/>
+        <c:axId val="44424790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2491,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2419,7 +2513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36684253"/>
+        <c:crossAx val="35137448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36684253"/>
+        <c:axId val="35137448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2564,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2492,7 +2586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33867639"/>
+        <c:crossAx val="44424790"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2583,7 +2677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$H$1</c:f>
+              <c:f>'lines plots'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2628,6 +2722,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2643,7 +2738,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2663,7 +2758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$H$2:$H$5</c:f>
+              <c:f>'lines plots'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2689,7 +2784,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$I$1</c:f>
+              <c:f>'lines plots'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2730,6 +2825,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2745,7 +2841,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2765,7 +2861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$I$2:$I$5</c:f>
+              <c:f>'lines plots'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2791,7 +2887,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AD$1</c:f>
+              <c:f>'lines plots'!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2836,6 +2932,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2851,7 +2948,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2871,7 +2968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AD$2:$AD$5</c:f>
+              <c:f>'lines plots'!$AD$2:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2897,7 +2994,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AE$1</c:f>
+              <c:f>'lines plots'!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2938,6 +3035,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2953,7 +3051,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2973,7 +3071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AE$2:$AE$5</c:f>
+              <c:f>'lines plots'!$AE$2:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3002,11 +3100,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95285426"/>
-        <c:axId val="62375090"/>
+        <c:axId val="75898656"/>
+        <c:axId val="44024087"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95285426"/>
+        <c:axId val="75898656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3138,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3062,7 +3160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62375090"/>
+        <c:crossAx val="44024087"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62375090"/>
+        <c:axId val="44024087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3211,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3135,7 +3233,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95285426"/>
+        <c:crossAx val="75898656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3198,7 +3296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$B$1</c:f>
+              <c:f>'lines plots'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,6 +3337,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3254,7 +3353,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3274,7 +3373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$B$2:$B$5</c:f>
+              <c:f>'lines plots'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3300,7 +3399,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$C$1</c:f>
+              <c:f>'lines plots'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3341,6 +3440,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3356,7 +3456,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3376,7 +3476,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$C$2:$C$5</c:f>
+              <c:f>'lines plots'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3402,7 +3502,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$D$1</c:f>
+              <c:f>'lines plots'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3443,6 +3543,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3458,7 +3559,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3478,7 +3579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$D$2:$D$5</c:f>
+              <c:f>'lines plots'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3504,7 +3605,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$E$1</c:f>
+              <c:f>'lines plots'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3545,6 +3646,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3560,7 +3662,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3580,7 +3682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$E$2:$E$5</c:f>
+              <c:f>'lines plots'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3606,7 +3708,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$F$1</c:f>
+              <c:f>'lines plots'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3647,6 +3749,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3662,7 +3765,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3682,7 +3785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$F$2:$F$5</c:f>
+              <c:f>'lines plots'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3708,7 +3811,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$G$1</c:f>
+              <c:f>'lines plots'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3749,6 +3852,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3764,7 +3868,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3784,7 +3888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$G$2:$G$5</c:f>
+              <c:f>'lines plots'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3810,7 +3914,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$H$1</c:f>
+              <c:f>'lines plots'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3851,6 +3955,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3866,7 +3971,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3886,7 +3991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$H$2:$H$5</c:f>
+              <c:f>'lines plots'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3912,7 +4017,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$I$1</c:f>
+              <c:f>'lines plots'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3953,6 +4058,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3968,7 +4074,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3988,7 +4094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$I$2:$I$5</c:f>
+              <c:f>'lines plots'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4014,7 +4120,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$J$1</c:f>
+              <c:f>'lines plots'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4055,6 +4161,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4070,7 +4177,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4090,7 +4197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$J$2:$J$5</c:f>
+              <c:f>'lines plots'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4116,7 +4223,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$K$1</c:f>
+              <c:f>'lines plots'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4137,7 +4244,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -4157,6 +4264,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4172,7 +4280,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4192,7 +4300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$K$2:$K$5</c:f>
+              <c:f>'lines plots'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4218,7 +4326,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$L$1</c:f>
+              <c:f>'lines plots'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4259,6 +4367,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4274,7 +4383,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4294,7 +4403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$L$2:$L$5</c:f>
+              <c:f>'lines plots'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4320,7 +4429,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$M$1</c:f>
+              <c:f>'lines plots'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4361,6 +4470,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4376,7 +4486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4396,7 +4506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$M$2:$M$5</c:f>
+              <c:f>'lines plots'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4422,7 +4532,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$N$1</c:f>
+              <c:f>'lines plots'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4463,6 +4573,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4478,7 +4589,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4498,7 +4609,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$N$2:$N$5</c:f>
+              <c:f>'lines plots'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4524,7 +4635,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$O$1</c:f>
+              <c:f>'lines plots'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4565,6 +4676,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4580,7 +4692,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4600,7 +4712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$O$2:$O$5</c:f>
+              <c:f>'lines plots'!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4626,7 +4738,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$P$1</c:f>
+              <c:f>'lines plots'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4667,6 +4779,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4682,7 +4795,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4702,7 +4815,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$P$2:$P$5</c:f>
+              <c:f>'lines plots'!$P$2:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4728,7 +4841,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Q$1</c:f>
+              <c:f>'lines plots'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4769,6 +4882,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4784,7 +4898,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4804,7 +4918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Q$2:$Q$5</c:f>
+              <c:f>'lines plots'!$Q$2:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4830,7 +4944,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$R$1</c:f>
+              <c:f>'lines plots'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4871,6 +4985,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4886,7 +5001,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4906,7 +5021,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$R$2:$R$5</c:f>
+              <c:f>'lines plots'!$R$2:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4932,7 +5047,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$S$1</c:f>
+              <c:f>'lines plots'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4973,6 +5088,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4988,7 +5104,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5008,7 +5124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$S$2:$S$5</c:f>
+              <c:f>'lines plots'!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5034,7 +5150,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$T$1</c:f>
+              <c:f>'lines plots'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5075,6 +5191,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5090,7 +5207,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5110,7 +5227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$T$2:$T$5</c:f>
+              <c:f>'lines plots'!$T$2:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5136,7 +5253,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$U$1</c:f>
+              <c:f>'lines plots'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5177,6 +5294,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5192,7 +5310,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5212,7 +5330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$U$2:$U$5</c:f>
+              <c:f>'lines plots'!$U$2:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5238,7 +5356,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$V$1</c:f>
+              <c:f>'lines plots'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5279,6 +5397,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5294,7 +5413,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5314,7 +5433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$V$2:$V$5</c:f>
+              <c:f>'lines plots'!$V$2:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5340,7 +5459,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$W$1</c:f>
+              <c:f>'lines plots'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5381,6 +5500,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5396,7 +5516,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5416,7 +5536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$W$2:$W$5</c:f>
+              <c:f>'lines plots'!$W$2:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5442,7 +5562,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$X$1</c:f>
+              <c:f>'lines plots'!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5483,6 +5603,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5498,7 +5619,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5518,7 +5639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$X$2:$X$5</c:f>
+              <c:f>'lines plots'!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5544,7 +5665,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Y$1</c:f>
+              <c:f>'lines plots'!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5585,6 +5706,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5600,7 +5722,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5620,7 +5742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Y$2:$Y$5</c:f>
+              <c:f>'lines plots'!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5646,7 +5768,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Z$1</c:f>
+              <c:f>'lines plots'!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5667,7 +5789,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -5687,6 +5809,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5702,7 +5825,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5722,7 +5845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Z$2:$Z$5</c:f>
+              <c:f>'lines plots'!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5748,7 +5871,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AA$1</c:f>
+              <c:f>'lines plots'!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5789,6 +5912,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5804,7 +5928,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5824,7 +5948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AA$2:$AA$5</c:f>
+              <c:f>'lines plots'!$AA$2:$AA$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5850,7 +5974,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AB$1</c:f>
+              <c:f>'lines plots'!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5891,6 +6015,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5906,7 +6031,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5926,7 +6051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AB$2:$AB$5</c:f>
+              <c:f>'lines plots'!$AB$2:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5952,7 +6077,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AC$1</c:f>
+              <c:f>'lines plots'!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5993,6 +6118,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6008,7 +6134,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6028,7 +6154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AC$2:$AC$5</c:f>
+              <c:f>'lines plots'!$AC$2:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6054,7 +6180,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AD$1</c:f>
+              <c:f>'lines plots'!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6095,6 +6221,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6110,7 +6237,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6130,7 +6257,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AD$2:$AD$5</c:f>
+              <c:f>'lines plots'!$AD$2:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6156,7 +6283,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AE$1</c:f>
+              <c:f>'lines plots'!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6197,6 +6324,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6212,7 +6340,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6232,7 +6360,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AE$2:$AE$5</c:f>
+              <c:f>'lines plots'!$AE$2:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6261,11 +6389,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31980661"/>
-        <c:axId val="86615547"/>
+        <c:axId val="83965669"/>
+        <c:axId val="78001198"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31980661"/>
+        <c:axId val="83965669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6427,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6321,7 +6449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86615547"/>
+        <c:crossAx val="78001198"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6329,7 +6457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86615547"/>
+        <c:axId val="78001198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6372,7 +6500,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6394,7 +6522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31980661"/>
+        <c:crossAx val="83965669"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6457,7 +6585,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$B$1</c:f>
+              <c:f>'lines plots'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6498,6 +6626,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6513,7 +6642,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6533,7 +6662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$B$2:$B$5</c:f>
+              <c:f>'lines plots'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6559,7 +6688,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$C$1</c:f>
+              <c:f>'lines plots'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6600,6 +6729,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6615,7 +6745,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6635,7 +6765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$C$2:$C$5</c:f>
+              <c:f>'lines plots'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6661,7 +6791,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$D$1</c:f>
+              <c:f>'lines plots'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6702,6 +6832,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6717,7 +6848,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6737,7 +6868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$D$2:$D$5</c:f>
+              <c:f>'lines plots'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6763,7 +6894,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$E$1</c:f>
+              <c:f>'lines plots'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6804,6 +6935,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6819,7 +6951,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6839,7 +6971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$E$2:$E$5</c:f>
+              <c:f>'lines plots'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6865,7 +6997,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$F$1</c:f>
+              <c:f>'lines plots'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6906,6 +7038,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6921,7 +7054,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6941,7 +7074,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$F$2:$F$5</c:f>
+              <c:f>'lines plots'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6967,7 +7100,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$G$1</c:f>
+              <c:f>'lines plots'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7008,6 +7141,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7023,7 +7157,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7043,7 +7177,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$G$2:$G$5</c:f>
+              <c:f>'lines plots'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7069,7 +7203,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$H$1</c:f>
+              <c:f>'lines plots'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7110,6 +7244,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7125,7 +7260,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7145,7 +7280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$H$2:$H$5</c:f>
+              <c:f>'lines plots'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7171,7 +7306,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$I$1</c:f>
+              <c:f>'lines plots'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7212,6 +7347,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7227,7 +7363,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7247,7 +7383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$I$2:$I$5</c:f>
+              <c:f>'lines plots'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7273,7 +7409,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$J$1</c:f>
+              <c:f>'lines plots'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7314,6 +7450,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7329,7 +7466,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7349,7 +7486,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$J$2:$J$5</c:f>
+              <c:f>'lines plots'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7375,7 +7512,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$K$1</c:f>
+              <c:f>'lines plots'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7396,7 +7533,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -7416,6 +7553,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7431,7 +7569,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7451,7 +7589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$K$2:$K$5</c:f>
+              <c:f>'lines plots'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7477,7 +7615,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$L$1</c:f>
+              <c:f>'lines plots'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7518,6 +7656,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7533,7 +7672,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7553,7 +7692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$L$2:$L$5</c:f>
+              <c:f>'lines plots'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7579,7 +7718,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$M$1</c:f>
+              <c:f>'lines plots'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7620,6 +7759,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7635,7 +7775,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7655,7 +7795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$M$2:$M$5</c:f>
+              <c:f>'lines plots'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7681,7 +7821,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$N$1</c:f>
+              <c:f>'lines plots'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7722,6 +7862,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7737,7 +7878,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7757,7 +7898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$N$2:$N$5</c:f>
+              <c:f>'lines plots'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7783,7 +7924,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$O$1</c:f>
+              <c:f>'lines plots'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7824,6 +7965,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7839,7 +7981,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7859,7 +8001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$O$2:$O$5</c:f>
+              <c:f>'lines plots'!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7885,7 +8027,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$P$1</c:f>
+              <c:f>'lines plots'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7926,6 +8068,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7941,7 +8084,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7961,7 +8104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$P$2:$P$5</c:f>
+              <c:f>'lines plots'!$P$2:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7987,7 +8130,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Q$1</c:f>
+              <c:f>'lines plots'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8028,6 +8171,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8043,7 +8187,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8063,7 +8207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Q$2:$Q$5</c:f>
+              <c:f>'lines plots'!$Q$2:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8089,7 +8233,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$R$1</c:f>
+              <c:f>'lines plots'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8130,6 +8274,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8145,7 +8290,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8165,7 +8310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$R$2:$R$5</c:f>
+              <c:f>'lines plots'!$R$2:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8191,7 +8336,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$S$1</c:f>
+              <c:f>'lines plots'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8232,6 +8377,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8247,7 +8393,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8267,7 +8413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$S$2:$S$5</c:f>
+              <c:f>'lines plots'!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8293,7 +8439,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$T$1</c:f>
+              <c:f>'lines plots'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8334,6 +8480,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8349,7 +8496,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8369,7 +8516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$T$2:$T$5</c:f>
+              <c:f>'lines plots'!$T$2:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8395,7 +8542,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$U$1</c:f>
+              <c:f>'lines plots'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8436,6 +8583,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8451,7 +8599,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8471,7 +8619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$U$2:$U$5</c:f>
+              <c:f>'lines plots'!$U$2:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8497,7 +8645,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$V$1</c:f>
+              <c:f>'lines plots'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8538,6 +8686,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8553,7 +8702,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8573,7 +8722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$V$2:$V$5</c:f>
+              <c:f>'lines plots'!$V$2:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8599,7 +8748,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$W$1</c:f>
+              <c:f>'lines plots'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8640,6 +8789,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8655,7 +8805,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8675,7 +8825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$W$2:$W$5</c:f>
+              <c:f>'lines plots'!$W$2:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8701,7 +8851,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$X$1</c:f>
+              <c:f>'lines plots'!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8742,6 +8892,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8757,7 +8908,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8777,7 +8928,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$X$2:$X$5</c:f>
+              <c:f>'lines plots'!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8803,7 +8954,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Y$1</c:f>
+              <c:f>'lines plots'!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8844,6 +8995,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8859,7 +9011,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8879,7 +9031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Y$2:$Y$5</c:f>
+              <c:f>'lines plots'!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8905,7 +9057,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Z$1</c:f>
+              <c:f>'lines plots'!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8926,7 +9078,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -8946,6 +9098,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8961,7 +9114,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8981,7 +9134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Z$2:$Z$5</c:f>
+              <c:f>'lines plots'!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9007,7 +9160,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AA$1</c:f>
+              <c:f>'lines plots'!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9048,6 +9201,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9063,7 +9217,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9083,7 +9237,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AA$2:$AA$5</c:f>
+              <c:f>'lines plots'!$AA$2:$AA$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9109,7 +9263,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AB$1</c:f>
+              <c:f>'lines plots'!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9150,6 +9304,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9165,7 +9320,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9185,7 +9340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AB$2:$AB$5</c:f>
+              <c:f>'lines plots'!$AB$2:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9211,7 +9366,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AC$1</c:f>
+              <c:f>'lines plots'!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9252,6 +9407,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9267,7 +9423,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9287,7 +9443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AC$2:$AC$5</c:f>
+              <c:f>'lines plots'!$AC$2:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9313,7 +9469,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AD$1</c:f>
+              <c:f>'lines plots'!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9354,6 +9510,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9369,7 +9526,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9389,7 +9546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AD$2:$AD$5</c:f>
+              <c:f>'lines plots'!$AD$2:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9415,7 +9572,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$AE$1</c:f>
+              <c:f>'lines plots'!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9456,6 +9613,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9471,7 +9629,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9491,7 +9649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$AE$2:$AE$5</c:f>
+              <c:f>'lines plots'!$AE$2:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9520,11 +9678,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89149966"/>
-        <c:axId val="60670735"/>
+        <c:axId val="46180583"/>
+        <c:axId val="56278893"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89149966"/>
+        <c:axId val="46180583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9558,7 +9716,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9580,7 +9738,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60670735"/>
+        <c:crossAx val="56278893"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9588,7 +9746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60670735"/>
+        <c:axId val="56278893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9631,7 +9789,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9653,7 +9811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89149966"/>
+        <c:crossAx val="46180583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9744,7 +9902,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$B$1</c:f>
+              <c:f>'lines plots'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9789,6 +9947,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9804,7 +9963,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9824,7 +9983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$B$2:$B$5</c:f>
+              <c:f>'lines plots'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9850,7 +10009,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$C$1</c:f>
+              <c:f>'lines plots'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9891,6 +10050,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9906,7 +10066,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9926,7 +10086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$C$2:$C$5</c:f>
+              <c:f>'lines plots'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9952,7 +10112,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$J$1</c:f>
+              <c:f>'lines plots'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9997,6 +10157,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10012,7 +10173,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10032,7 +10193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$J$2:$J$5</c:f>
+              <c:f>'lines plots'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10058,7 +10219,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$K$1</c:f>
+              <c:f>'lines plots'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10079,7 +10240,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -10099,6 +10260,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10114,7 +10276,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10134,7 +10296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$K$2:$K$5</c:f>
+              <c:f>'lines plots'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10160,7 +10322,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$P$1</c:f>
+              <c:f>'lines plots'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10205,6 +10367,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10220,7 +10383,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10240,7 +10403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$P$2:$P$5</c:f>
+              <c:f>'lines plots'!$P$2:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10266,7 +10429,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$Q$1</c:f>
+              <c:f>'lines plots'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10307,6 +10470,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10322,7 +10486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10342,7 +10506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$Q$2:$Q$5</c:f>
+              <c:f>'lines plots'!$Q$2:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10368,7 +10532,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$R$1</c:f>
+              <c:f>'lines plots'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10413,6 +10577,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10428,7 +10593,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10448,7 +10613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$R$2:$R$5</c:f>
+              <c:f>'lines plots'!$R$2:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10474,7 +10639,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$S$1</c:f>
+              <c:f>'lines plots'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10515,6 +10680,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10530,7 +10696,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10550,7 +10716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$S$2:$S$5</c:f>
+              <c:f>'lines plots'!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10579,11 +10745,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="21017004"/>
-        <c:axId val="86449602"/>
+        <c:axId val="65875944"/>
+        <c:axId val="11335702"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21017004"/>
+        <c:axId val="65875944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10617,7 +10783,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10639,7 +10805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86449602"/>
+        <c:crossAx val="11335702"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10647,7 +10813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86449602"/>
+        <c:axId val="11335702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10690,7 +10856,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10712,7 +10878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21017004"/>
+        <c:crossAx val="65875944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10803,7 +10969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$D$1</c:f>
+              <c:f>'lines plots'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10848,6 +11014,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10863,7 +11030,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10883,7 +11050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$D$2:$D$5</c:f>
+              <c:f>'lines plots'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10909,7 +11076,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$E$1</c:f>
+              <c:f>'lines plots'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10950,6 +11117,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10965,7 +11133,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -10985,7 +11153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$E$2:$E$5</c:f>
+              <c:f>'lines plots'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11011,7 +11179,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$F$1</c:f>
+              <c:f>'lines plots'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11056,6 +11224,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11071,7 +11240,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -11091,7 +11260,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$F$2:$F$5</c:f>
+              <c:f>'lines plots'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11117,7 +11286,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plotting!$G$1</c:f>
+              <c:f>'lines plots'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11158,6 +11327,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11173,7 +11343,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>plotting!$A$2:$A$5</c:f>
+              <c:f>'lines plots'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -11193,7 +11363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plotting!$G$2:$G$5</c:f>
+              <c:f>'lines plots'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11222,11 +11392,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3650566"/>
-        <c:axId val="3113008"/>
+        <c:axId val="8729472"/>
+        <c:axId val="68302589"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3650566"/>
+        <c:axId val="8729472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,7 +11430,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11282,7 +11452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3113008"/>
+        <c:crossAx val="68302589"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11290,7 +11460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3113008"/>
+        <c:axId val="68302589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11333,7 +11503,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11355,7 +11525,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3650566"/>
+        <c:crossAx val="8729472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11414,9 +11584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
+      <xdr:colOff>673560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11425,7 +11595,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="517320" y="1414080"/>
-        <a:ext cx="6658920" cy="4950000"/>
+        <a:ext cx="6668640" cy="4949640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11444,9 +11614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>271080</xdr:colOff>
+      <xdr:colOff>270720</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11454,8 +11624,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7890120" y="6949800"/>
-        <a:ext cx="5385600" cy="5250960"/>
+        <a:off x="7901280" y="6949800"/>
+        <a:ext cx="5394240" cy="5250600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11474,9 +11644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11485,7 +11655,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="541800" y="6852240"/>
-        <a:ext cx="5443560" cy="5438160"/>
+        <a:ext cx="5452200" cy="5437800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11504,9 +11674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>566640</xdr:colOff>
+      <xdr:colOff>566280</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11514,8 +11684,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7594560" y="1365840"/>
-        <a:ext cx="5976720" cy="5242680"/>
+        <a:off x="7605720" y="1365840"/>
+        <a:ext cx="5985360" cy="5242320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11534,9 +11704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11544,8 +11714,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15443640" y="1138320"/>
-        <a:ext cx="7052760" cy="5242680"/>
+        <a:off x="15467760" y="1138320"/>
+        <a:ext cx="7062480" cy="5242320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11564,9 +11734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11574,8 +11744,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="22758840" y="1301040"/>
-        <a:ext cx="7052760" cy="5242680"/>
+        <a:off x="22794480" y="1301040"/>
+        <a:ext cx="7062480" cy="5242320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11594,9 +11764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11605,7 +11775,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640440" y="12818520"/>
-        <a:ext cx="6067080" cy="5543280"/>
+        <a:ext cx="6076800" cy="5542920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11624,9 +11794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11634,8 +11804,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13645440" y="6787440"/>
-        <a:ext cx="5385600" cy="5250960"/>
+        <a:off x="13665600" y="6787440"/>
+        <a:ext cx="5394600" cy="5250600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11659,14 +11829,14 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.55"/>
   </cols>
   <sheetData>
@@ -11942,12 +12112,12 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.55"/>
   </cols>
   <sheetData>
@@ -12204,7 +12374,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12219,8 +12389,508 @@
   </sheetPr>
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J41" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y59" activeCellId="0" sqref="Y59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0944286295241968</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.0826358153506804</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.103782025213501</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.0382518972783045</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.0986579910532737</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.0608603962462818</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.0573403822692151</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.0270481964168123</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.113379422529484</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.0664289750361817</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.0159414396095974</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.00902372871785084</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.0392842618950793</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.0513339612352737</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.164457096380643</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.173201514806549</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0.0195201301342009</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0.0231095448031116</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0.0488003253355022</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0.0921502030034474</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.0414802765351769</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0.0912947502229759</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>0.0595363969093127</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>0.099236382786743</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0.0503456689711265</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>0.0756132346289845</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>0.065392435949573</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>0.0922146483240387</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>0.0276535176901179</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>0.0175967511427645</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.100583836935368</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0689717234222173</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.0987401413499949</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.0453881606726576</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.0984328587524327</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.0949727062236779</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0615589470449657</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.0228788920494914</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.117074669671208</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.0579861603720797</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.0157738400081942</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.00924778237446189</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.0472190924920619</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.079373921187319</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.166956878008809</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.136249370715626</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.00655536208132746</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.0172734546236384</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.04834579534979</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.0973447529333477</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.0395370275530062</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.0767854120949273</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0.0587934036669057</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0.0695128108290148</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.0493700706749974</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.0793432513093681</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0.0657584758783161</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>0.126935684701724</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0.0252996005326232</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>0.0177359164904484</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0997620805644433</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0778718963113712</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.100008204118467</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0527110235803855</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.0918861268356715</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0862253668868493</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.0644843711543195</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.0458199081908198</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.123143818196735</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.0932829957826171</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.0166543604889655</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.00836531045509764</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.0297809500369185</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.0672847767208731</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.162851751579293</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.166934947747533</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.0215768315694479</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.0300809733681882</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.0466814340799081</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.0875032699170195</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.0324062679465091</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0.0883457587863259</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0.0646484535236689</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>0.0340910081076151</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.0548035113627041</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.0626178569995105</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>0.0637460004922471</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>0.0633065586470939</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>0.0275658380507015</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>0.0355583484987002</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.105938212986372</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0758897516445013</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.108959733612875</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.0679544195651042</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0927421841277672</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0796202986314219</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.0598754393537646</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.0500635098450066</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.119812542393784</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.0826841600572591</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.0154159215637911</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.00558353346400009</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.0328050810877474</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.067176568337085</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.16143553061602</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.152166898144153</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.021767281248073</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0.0361229948235589</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.0451994820250355</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.0711675915341745</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.0321884442251958</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0.098150794479446</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>0.0567305913547512</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.038372374663234</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.0538323981007585</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.0730514063876007</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.0666584448418326</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>0.0831908646800521</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0.026638712462231</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>0.0188048337434034</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AE79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12700,14 +13370,893 @@
         <v>0.0188048337434034</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.0944286295241968</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.0826358153506804</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.100583836935368</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.0689717234222173</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.0997620805644433</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.0778718963113712</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.105938212986372</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.0758897516445013</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.103782025213501</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.0382518972783045</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.0987401413499949</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.0453881606726576</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.100008204118467</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.0527110235803855</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.108959733612875</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.0679544195651042</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.0986579910532737</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.0608603962462818</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.0984328587524327</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.0949727062236779</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.0918861268356715</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.0862253668868493</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.0927421841277672</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.0796202986314219</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.0573403822692151</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.0270481964168123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.0615589470449657</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.0228788920494914</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.0644843711543195</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.0458199081908198</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.0598754393537646</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.0500635098450066</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.113379422529484</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.0664289750361817</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.117074669671208</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.0579861603720797</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.123143818196735</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.0932829957826171</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.119812542393784</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.0826841600572591</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.0159414396095974</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.00902372871785084</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.0157738400081942</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.00924778237446189</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.0166543604889655</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.00836531045509764</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.0154159215637911</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.00558353346400009</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.0392842618950793</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.0513339612352737</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.0472190924920619</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.079373921187319</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.0297809500369185</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.0672847767208731</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.0328050810877474</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.067176568337085</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.164457096380643</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.173201514806549</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.166956878008809</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.136249370715626</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.162851751579293</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.166934947747533</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.16143553061602</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.152166898144153</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.0195201301342009</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.0231095448031116</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.00655536208132746</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.0172734546236384</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.0215768315694479</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.0300809733681882</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.021767281248073</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.0361229948235589</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.0488003253355022</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.0921502030034474</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.04834579534979</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.0973447529333477</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.0466814340799081</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.0875032699170195</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.0451994820250355</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.0711675915341745</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.0414802765351769</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.0912947502229759</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.0395370275530062</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.0767854120949273</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.0324062679465091</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.0883457587863259</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.0321884442251958</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.098150794479446</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.0595363969093127</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.099236382786743</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.0587934036669057</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.0695128108290148</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.0646484535236689</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.0340910081076151</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.0567305913547512</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.038372374663234</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.0503456689711265</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.0756132346289845</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.0493700706749974</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.0793432513093681</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.0548035113627041</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.0626178569995105</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.0538323981007585</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.0730514063876007</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.065392435949573</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.0922146483240387</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.0657584758783161</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.126935684701724</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.0637460004922471</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0.0633065586470939</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.0666584448418326</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0.0831908646800521</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.0276535176901179</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0.0175967511427645</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.0252996005326232</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.0177359164904484</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.0275658380507015</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.0355583484987002</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.026638712462231</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.0188048337434034</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>